--- a/pickle/rolling_corr_excel_target_index_KOSPI_simulation_term_type_2_window_size_33.xlsx
+++ b/pickle/rolling_corr_excel_target_index_KOSPI_simulation_term_type_2_window_size_33.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
   <si>
     <t>KOSPI_BBA-10Y Spread</t>
   </si>
@@ -35,24 +35,6 @@
     <t>KOSPI_CNY/USD</t>
   </si>
   <si>
-    <t>KOSPI_CPB 선진국 산업생산</t>
-  </si>
-  <si>
-    <t>KOSPI_CPB 선진국 수출</t>
-  </si>
-  <si>
-    <t>KOSPI_CPB 세계교역</t>
-  </si>
-  <si>
-    <t>KOSPI_CPB 세계생산</t>
-  </si>
-  <si>
-    <t>KOSPI_CPB 이머징 산업생산</t>
-  </si>
-  <si>
-    <t>KOSPI_CPB 이머징 수출</t>
-  </si>
-  <si>
     <t>KOSPI_CPI 주거비</t>
   </si>
   <si>
@@ -203,18 +185,9 @@
     <t>KOSPI_Nikkei225 P/E</t>
   </si>
   <si>
-    <t>KOSPI_OECD ASIA 5 경기선행지수</t>
-  </si>
-  <si>
-    <t>KOSPI_OECD G7 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_OECD 소비자물가</t>
   </si>
   <si>
-    <t>KOSPI_OECD+6NME 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_OITP 인덱스</t>
   </si>
   <si>
@@ -374,12 +347,6 @@
     <t>KOSPI_두바이유가</t>
   </si>
   <si>
-    <t>KOSPI_러시아 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>KOSPI_러시아 수출 YoY</t>
-  </si>
-  <si>
     <t>KOSPI_미국 10년 투기적포지션</t>
   </si>
   <si>
@@ -401,18 +368,12 @@
     <t>KOSPI_미국 NAHB 주택시장지수</t>
   </si>
   <si>
-    <t>KOSPI_미국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_미국 PD 일평균 국채거래량</t>
   </si>
   <si>
     <t>KOSPI_미국 REER</t>
   </si>
   <si>
-    <t>KOSPI_미국 S&amp;P 케이스쉴러 주택가격</t>
-  </si>
-  <si>
     <t>KOSPI_미국 개인근로소득 YoY</t>
   </si>
   <si>
@@ -515,9 +476,6 @@
     <t>KOSPI_발틱 해운임지수</t>
   </si>
   <si>
-    <t>KOSPI_브라질 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_브라질 REER</t>
   </si>
   <si>
@@ -557,12 +515,6 @@
     <t>KOSPI_유럽 M3 YoY</t>
   </si>
   <si>
-    <t>KOSPI_유럽 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>KOSPI_유럽 산업생산(건설 제외) YoY</t>
-  </si>
-  <si>
     <t>KOSPI_유럽 소매판매 YoY</t>
   </si>
   <si>
@@ -584,9 +536,6 @@
     <t>KOSPI_유로존 Core CPI</t>
   </si>
   <si>
-    <t>KOSPI_유로존 Credit Impulse</t>
-  </si>
-  <si>
     <t>KOSPI_유로존 ESI</t>
   </si>
   <si>
@@ -596,9 +545,6 @@
     <t>KOSPI_유로존 소비자신뢰지수</t>
   </si>
   <si>
-    <t>KOSPI_인도 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_인도 REER</t>
   </si>
   <si>
@@ -614,15 +560,9 @@
     <t>KOSPI_일본 ESI</t>
   </si>
   <si>
-    <t>KOSPI_일본 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_일본 REER</t>
   </si>
   <si>
-    <t>KOSPI_일본 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_일본 산업생산 YoY</t>
   </si>
   <si>
@@ -659,9 +599,6 @@
     <t>KOSPI_중국 M1 YoY</t>
   </si>
   <si>
-    <t>KOSPI_중국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>KOSPI_중국 PPI</t>
   </si>
   <si>
@@ -699,18 +636,6 @@
   </si>
   <si>
     <t>KOSPI_한국 Core CPI</t>
-  </si>
-  <si>
-    <t>KOSPI_한국 M1 YoY</t>
-  </si>
-  <si>
-    <t>KOSPI_한국 M2 YoY</t>
-  </si>
-  <si>
-    <t>KOSPI_한국 M3 YoY</t>
-  </si>
-  <si>
-    <t>KOSPI_한국 OECD 경기선행지수</t>
   </si>
   <si>
     <t>KOSPI_한국 PPI</t>
@@ -1212,7 +1137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JO4"/>
+  <dimension ref="A1:IP4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1220,7 +1145,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:275">
+    <row r="1" spans="1:250">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1968,921 +1893,771 @@
       <c r="IP1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="IQ1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:250">
+      <c r="A2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="IR1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="II2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:250">
+      <c r="A3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="IS1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:275">
-      <c r="A2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="II2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:275">
-      <c r="A3" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2891,22 +2666,22 @@
         <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
@@ -2915,28 +2690,28 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
         <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -2948,28 +2723,28 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH3" t="n">
         <v>3</v>
@@ -2984,25 +2759,25 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ3" t="n">
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS3" t="n">
         <v>0</v>
@@ -3014,13 +2789,13 @@
         <v>0</v>
       </c>
       <c r="AV3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW3" t="n">
         <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AY3" t="n">
         <v>0</v>
@@ -3041,52 +2816,52 @@
         <v>0</v>
       </c>
       <c r="BE3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BF3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG3" t="n">
         <v>0</v>
       </c>
       <c r="BH3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI3" t="n">
         <v>0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BK3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL3" t="n">
         <v>3</v>
       </c>
       <c r="BM3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BN3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BP3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BR3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BS3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BU3" t="n">
         <v>2</v>
@@ -3095,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="BW3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BX3" t="n">
         <v>3</v>
@@ -3104,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CA3" t="n">
         <v>0</v>
@@ -3113,46 +2888,46 @@
         <v>0</v>
       </c>
       <c r="CC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CF3" t="n">
         <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CH3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CJ3" t="n">
         <v>0</v>
       </c>
       <c r="CK3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CL3" t="n">
         <v>0</v>
       </c>
       <c r="CM3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CN3" t="n">
         <v>0</v>
       </c>
       <c r="CO3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CP3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
         <v>0</v>
@@ -3161,22 +2936,22 @@
         <v>0</v>
       </c>
       <c r="CS3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CT3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CU3" t="n">
         <v>3</v>
       </c>
       <c r="CV3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CW3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CX3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CY3" t="n">
         <v>0</v>
@@ -3188,118 +2963,118 @@
         <v>0</v>
       </c>
       <c r="DB3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DD3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DE3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DF3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DG3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
       </c>
       <c r="DI3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN3" t="n">
         <v>2</v>
       </c>
-      <c r="DL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DM3" t="n">
+      <c r="DO3" t="n">
         <v>2</v>
       </c>
-      <c r="DN3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO3" t="n">
-        <v>1</v>
-      </c>
       <c r="DP3" t="n">
         <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="ED3" t="n">
         <v>2</v>
       </c>
-      <c r="DT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED3" t="n">
-        <v>0</v>
-      </c>
       <c r="EE3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EF3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EG3" t="n">
         <v>0</v>
       </c>
       <c r="EH3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="EI3" t="n">
         <v>0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EK3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EL3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EM3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EN3" t="n">
         <v>3</v>
@@ -3308,10 +3083,10 @@
         <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="ER3" t="n">
         <v>0</v>
@@ -3323,13 +3098,13 @@
         <v>0</v>
       </c>
       <c r="EU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EV3" t="n">
         <v>2</v>
       </c>
-      <c r="EV3" t="n">
-        <v>3</v>
-      </c>
       <c r="EW3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="EX3" t="n">
         <v>2</v>
@@ -3341,7 +3116,7 @@
         <v>3</v>
       </c>
       <c r="FA3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FB3" t="n">
         <v>0</v>
@@ -3350,19 +3125,19 @@
         <v>3</v>
       </c>
       <c r="FD3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FE3" t="n">
         <v>0</v>
       </c>
       <c r="FF3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FG3" t="n">
         <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FI3" t="n">
         <v>3</v>
@@ -3371,149 +3146,149 @@
         <v>0</v>
       </c>
       <c r="FK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GC3" t="n">
         <v>2</v>
       </c>
-      <c r="FL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FR3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FX3" t="n">
+      <c r="GD3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GT3" t="n">
         <v>2</v>
       </c>
-      <c r="FY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GG3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GR3" t="n">
+      <c r="GU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GZ3" t="n">
         <v>2</v>
       </c>
-      <c r="GS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>0</v>
-      </c>
       <c r="HA3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HB3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HC3" t="n">
         <v>3</v>
       </c>
       <c r="HD3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HF3" t="n">
         <v>2</v>
       </c>
-      <c r="HF3" t="n">
-        <v>3</v>
-      </c>
       <c r="HG3" t="n">
         <v>3</v>
       </c>
@@ -3521,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="HI3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HJ3" t="n">
         <v>3</v>
@@ -3533,74 +3308,74 @@
         <v>3</v>
       </c>
       <c r="HM3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HN3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HO3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HZ3" t="n">
         <v>2</v>
       </c>
-      <c r="HP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HQ3" t="n">
+      <c r="IA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE3" t="n">
         <v>2</v>
       </c>
-      <c r="HR3" t="n">
+      <c r="IF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="II3" t="n">
         <v>2</v>
       </c>
-      <c r="HS3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>2</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="II3" t="n">
-        <v>3</v>
-      </c>
       <c r="IJ3" t="n">
         <v>3</v>
       </c>
@@ -3611,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="IM3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="IN3" t="n">
         <v>2</v>
@@ -3622,907 +3397,757 @@
       <c r="IP3" t="n">
         <v>0</v>
       </c>
-      <c r="IQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>2</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>2</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO3" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:275">
+    <row r="4" spans="1:250">
       <c r="A4" s="1" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.8776901332697801</v>
+        <v>-0.8883449361895689</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8591437734452082</v>
+        <v>0.8904116236811725</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8973400321588535</v>
+        <v>0.8474753641473494</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7883281602257803</v>
+        <v>0.7754200222311058</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6785178198283716</v>
+        <v>0.6346305570584727</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5367550419941118</v>
+        <v>-0.3002493439358988</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9528005122598705</v>
+        <v>0.8896847665130142</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9311145970437041</v>
+        <v>0.8878766733012144</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9210154391683281</v>
+        <v>0.5107861235565634</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9400644741753934</v>
+        <v>0.4281896475487821</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9028007045260023</v>
+        <v>-0.6742213692142588</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8660871841853205</v>
+        <v>0.9309627417785766</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8960031867958119</v>
+        <v>-0.8376093129121815</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8904226508540124</v>
+        <v>0.8901877758064711</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.2018918555413009</v>
+        <v>0.8396068372365383</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5062287291694865</v>
+        <v>0.8654375666041226</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.8517184315639129</v>
+        <v>0.5167450515057451</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9269109398505589</v>
+        <v>0.6158037536888951</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.8192011618342638</v>
+        <v>-0.4881093693909578</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8828942382998982</v>
+        <v>0.8978007658140121</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8058619425029588</v>
+        <v>0.5311684939323557</v>
       </c>
       <c r="W4" t="n">
-        <v>0.7915970213602956</v>
+        <v>0.867206275460174</v>
       </c>
       <c r="X4" t="n">
-        <v>0.5490392668303887</v>
+        <v>0.7898244030099038</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.5106684936729775</v>
+        <v>-0.1444242613439392</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.6394733663572707</v>
+        <v>0.8946659773487885</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.861612077623553</v>
+        <v>0.6637094525795469</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.4724929810856925</v>
+        <v>0.9043881403217708</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.8653999451766545</v>
+        <v>0.6633292556156328</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.7927161560290806</v>
+        <v>0.9293091304938519</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.1083207666439283</v>
+        <v>0.7294634286292451</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.8532861285681577</v>
+        <v>0.5934370323341773</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.5240887270250656</v>
+        <v>0.6080916115122018</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.8956808262814963</v>
+        <v>-0.1973010396963211</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.5660541138164463</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.9189705918042115</v>
+        <v>-0.1560518687623646</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.6367815168513908</v>
+        <v>0.9743563218662525</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.4110151619294725</v>
+        <v>-0.1459290002732168</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.6396517758095882</v>
+        <v>-0.5514300356487665</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0.2581920355276412</v>
+        <v>-0.756415175236274</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9146058998262383</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.3319058735211647</v>
+        <v>0.2232745159706087</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.9664504375796499</v>
+        <v>-0.8316484679538521</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.3046590702291392</v>
+        <v>-0.6916447929175633</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.3246983022640119</v>
+        <v>0.9728829995163428</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.7409603507667183</v>
+        <v>0.9527620614926056</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.9128088956649523</v>
+        <v>0.9409997848652297</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.1123294987004619</v>
+        <v>0.9546454501222499</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.8405516773479729</v>
+        <v>0.9657174832434978</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.6759490413373217</v>
+        <v>0.9672322280629625</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.9783285943226467</v>
+        <v>0.9465798447627819</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.9688820915863517</v>
+        <v>0.9326848292172502</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.9628501058535686</v>
+        <v>0.9695102238343312</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.9568013801356537</v>
+        <v>0.8746309296829267</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.9644883386878736</v>
+        <v>0.8154905637729548</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.9719103076680546</v>
+        <v>0.7318256937136223</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.9677763805302112</v>
+        <v>0.1917755507432509</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.9581065109419639</v>
+        <v>0.9103444481071354</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.9450781460708951</v>
+        <v>-0.2115688894612729</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.8333834148772472</v>
+        <v>0.7969581453798269</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.8815367941609276</v>
+        <v>-0.1369590407455202</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.6503248273314619</v>
+        <v>0.8552112049565672</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.1704559342294088</v>
+        <v>0.8305471150822598</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.2255028331316273</v>
+        <v>0.525414914566811</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.9324252371869454</v>
+        <v>-0.5279596887137485</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.9097996470066516</v>
+        <v>0.9216455243699405</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.9199942043819664</v>
+        <v>0.7705036391291515</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.3376040131865742</v>
+        <v>0.9156749809622424</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.7702032539717145</v>
+        <v>0.5931245281602653</v>
       </c>
       <c r="BR4" t="n">
-        <v>-0.1331731766353252</v>
+        <v>0.9058943347108661</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.8095663161599252</v>
+        <v>0.8564458902753351</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.8504388829243346</v>
+        <v>0.5547400590491071</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.4548010005692097</v>
+        <v>0.9118493388658628</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.397548572922711</v>
+        <v>0.8209069548999479</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.9533253328820821</v>
+        <v>0.8341650570925622</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.9484382819282238</v>
+        <v>-0.8321804383904073</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.9373203861575623</v>
+        <v>-0.3120009435922236</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.7375577434309617</v>
+        <v>0.5754414754148259</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.960953393955695</v>
+        <v>0.886140174117795</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.8607389333385819</v>
+        <v>0.828947039713542</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.5042982584182658</v>
+        <v>0.7418161124831639</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.8900576003681198</v>
+        <v>0.4003305321114872</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.7395458146651969</v>
+        <v>0.7356386505150099</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.7903695173515476</v>
+        <v>0.8268452686195539</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.8526615959515494</v>
+        <v>-0.5447033927462076</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.4086782017024678</v>
+        <v>0.7171559143326229</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.3826593185631665</v>
+        <v>0.4526526115346942</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.8265139614017073</v>
+        <v>-0.2457612410208893</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.8429560879915011</v>
+        <v>0.362513522666531</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.6178419886737303</v>
+        <v>-0.190773231963333</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.3143827191540783</v>
+        <v>0.564344226757044</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.7353704137092142</v>
+        <v>0.900700225105951</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.7961290852754089</v>
+        <v>-0.5831164463722943</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.6456464087612144</v>
+        <v>0.8614143297558065</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.7206063796501133</v>
+        <v>0.8912111076716149</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.3625835532812899</v>
+        <v>-0.433108021940635</v>
       </c>
       <c r="CS4" t="n">
-        <v>-0.1841782332934761</v>
+        <v>0.9156108947545369</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.3164992083421161</v>
+        <v>0.5413386370695967</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.1825988248094713</v>
+        <v>0.8762737708937214</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.4220482394754382</v>
+        <v>0.8986278448803185</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.9169037826077044</v>
+        <v>0.8767495414691118</v>
       </c>
       <c r="CX4" t="n">
-        <v>-0.3964793744193308</v>
+        <v>0.8161280214458193</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.6321064699947424</v>
+        <v>-0.7146562928619599</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.9310948986048249</v>
+        <v>0.738018843559445</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0.3305997961123924</v>
+        <v>0.6089243100682262</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.9071371660558406</v>
+        <v>0.9435223733268036</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.5566030008463509</v>
+        <v>-0.5780778106558454</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.8857617142000825</v>
+        <v>0.6697681067414504</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.871380002816173</v>
+        <v>0.7637395066853583</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.855688627146232</v>
+        <v>0.2035976480184716</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.9043025440210204</v>
+        <v>0.7779805434800515</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.670553234593725</v>
+        <v>-0.143584765304159</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.7325832440471847</v>
+        <v>0.787110203099918</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.3546698459161147</v>
+        <v>-0.7197679214250287</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.925550202893567</v>
+        <v>0.3980301361534603</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0.6696581700778117</v>
+        <v>0.2429854167458852</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.7005556574796015</v>
+        <v>-0.8285445031666331</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.6994724299284105</v>
+        <v>0.7728901849526901</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.1606614221571945</v>
+        <v>0.3599897181908233</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.7777395333584436</v>
+        <v>-0.4987853066707058</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.8105131364752701</v>
+        <v>0.900700225105951</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.8574338093706635</v>
+        <v>0.8846982243491698</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.2519057276998297</v>
+        <v>0.910258178890929</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.7780955039107276</v>
+        <v>0.6911025333841204</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0.7055379468623931</v>
+        <v>0.8050730409563883</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.3778324570614727</v>
+        <v>0.429238287912205</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.2814422384205314</v>
+        <v>0.8808302924699332</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.7418285896991371</v>
+        <v>-0.9200452496814256</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.7657898178436369</v>
+        <v>0.9123055475509259</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.7035785410508144</v>
+        <v>0.7807129866038813</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.2608653128578823</v>
+        <v>0.949986798474358</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0.5175157661234951</v>
+        <v>0.8820362364424634</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.8793924042212746</v>
+        <v>0.6455780262831674</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.9169037826077044</v>
+        <v>-0.7272728677870949</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.9433066611780773</v>
+        <v>0.2795509446647351</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.8400647184708193</v>
+        <v>-0.1341482436878434</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.6321865189638564</v>
+        <v>0.7832985631662001</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.8909752969809288</v>
+        <v>0.9234272973435973</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.2842848313908179</v>
+        <v>0.3566908205085524</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.8975337552295071</v>
+        <v>0.841111625708641</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0.9151153215885329</v>
+        <v>0.9257211202937747</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.9640164897400708</v>
+        <v>0.8741319417148006</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.7113017721545518</v>
+        <v>0.838475820719361</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.9672164621615915</v>
+        <v>0.8655251612197882</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.9035662538546302</v>
+        <v>-0.8904143929164822</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.5787921948335972</v>
+        <v>0.8765808329619864</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.7182770195571506</v>
+        <v>0.2292833153206045</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.2575646655297407</v>
+        <v>0.7485455814084293</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.2482832487741964</v>
+        <v>-0.8748881524646015</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.7599175266668818</v>
+        <v>-0.8038416697018256</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.9349493553459369</v>
+        <v>-0.8846695856069615</v>
       </c>
       <c r="EV4" t="n">
-        <v>-0.3163931989207309</v>
+        <v>0.7600689449895472</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.8498281098928889</v>
+        <v>0.7586255776031551</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.9345135053417569</v>
+        <v>0.8123868144600687</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.881678514894884</v>
+        <v>0.6710460674287658</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.83062291271433</v>
+        <v>0.4698694398688311</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.8898474618670204</v>
+        <v>0.2238436728767813</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.9116819753747607</v>
+        <v>-0.4185972682692776</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.9496973817420209</v>
+        <v>0.4281896475487821</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.2335634242621739</v>
+        <v>0.8582357292694235</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.5225440943335276</v>
+        <v>0.41643602824603</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.8279797384231184</v>
+        <v>0.5546339295983256</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0.8692919059587759</v>
+        <v>-0.330033429691618</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.8708999694813641</v>
+        <v>0.8808480880603293</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.7060031052787776</v>
+        <v>-0.3971711988853106</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.7481881749910667</v>
+        <v>-0.189703624746877</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.7624650121472922</v>
+        <v>-0.4935666257161846</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.9155689907805138</v>
+        <v>0.229069785655988</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.6551581976626268</v>
+        <v>0.9326228894325934</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.4490923364070515</v>
+        <v>0.7287243611256459</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.1954139882049361</v>
+        <v>-0.4100933461640161</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0.2700752419013165</v>
+        <v>-0.7640197456282747</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.5062287291694865</v>
+        <v>0.816096486178545</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.8871024682823263</v>
+        <v>0.4466406325373486</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.2651771144858185</v>
+        <v>0.3605154219912444</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.6517749104156599</v>
+        <v>0.7703216125060499</v>
       </c>
       <c r="FU4" t="n">
-        <v>-0.1650233659382524</v>
+        <v>0.9326228894325934</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.8900196728066166</v>
+        <v>0.8325116605872905</v>
       </c>
       <c r="FW4" t="n">
-        <v>-0.413847962113239</v>
+        <v>0.3124701856838987</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.135520949715684</v>
+        <v>0.7391890379136874</v>
       </c>
       <c r="FY4" t="n">
-        <v>-0.3591558853994862</v>
+        <v>-0.7626421683306646</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.7035673792384116</v>
+        <v>-0.1436023485350749</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.4471265067197813</v>
+        <v>-0.4512870312806955</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.07528470566629895</v>
+        <v>0.7892858033650292</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.9326604620961402</v>
+        <v>0.7365004896931809</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.5592169098811264</v>
+        <v>0.5263518260610766</v>
       </c>
       <c r="GE4" t="n">
-        <v>-0.2585689902241576</v>
+        <v>0.9259100787825386</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0.727877876609671</v>
+        <v>0.8771976717805459</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.8986807080829281</v>
+        <v>0.2154905330742426</v>
       </c>
       <c r="GH4" t="n">
-        <v>0.4453122462544817</v>
+        <v>0.848355740741762</v>
       </c>
       <c r="GI4" t="n">
-        <v>-0.8805420857327353</v>
+        <v>-0.7692580422452568</v>
       </c>
       <c r="GJ4" t="n">
-        <v>0.6270779326324352</v>
+        <v>-0.2695165759921965</v>
       </c>
       <c r="GK4" t="n">
-        <v>0.7434173380398595</v>
+        <v>-0.2013990738514608</v>
       </c>
       <c r="GL4" t="n">
-        <v>0.9326604620961402</v>
+        <v>0.4754804789037624</v>
       </c>
       <c r="GM4" t="n">
-        <v>-0.3259989244050523</v>
+        <v>0.8976183730380741</v>
       </c>
       <c r="GN4" t="n">
-        <v>0.8957977909513372</v>
+        <v>0.9095088411262471</v>
       </c>
       <c r="GO4" t="n">
-        <v>-0.269315407400078</v>
+        <v>-0.6377544662396759</v>
       </c>
       <c r="GP4" t="n">
-        <v>0.7202299541229193</v>
+        <v>-0.7017607823286145</v>
       </c>
       <c r="GQ4" t="n">
-        <v>-0.8054750261477833</v>
+        <v>-0.2695165759921965</v>
       </c>
       <c r="GR4" t="n">
-        <v>-0.1069186477517831</v>
+        <v>-0.2695165759921965</v>
       </c>
       <c r="GS4" t="n">
-        <v>0.5587558484964922</v>
+        <v>0.8282069492617626</v>
       </c>
       <c r="GT4" t="n">
-        <v>-0.1842949343311113</v>
+        <v>0.7020997558808471</v>
       </c>
       <c r="GU4" t="n">
-        <v>0.7932024906666671</v>
+        <v>-0.2695165759921965</v>
       </c>
       <c r="GV4" t="n">
-        <v>0.8419081960435748</v>
+        <v>0.2066924888241575</v>
       </c>
       <c r="GW4" t="n">
-        <v>0.6689534097872579</v>
+        <v>0.2148517192888672</v>
       </c>
       <c r="GX4" t="n">
-        <v>0.475501084353757</v>
+        <v>0.5846675442954474</v>
       </c>
       <c r="GY4" t="n">
-        <v>0.9295720259618968</v>
+        <v>0.7694171338203682</v>
       </c>
       <c r="GZ4" t="n">
-        <v>0.8459234728600888</v>
+        <v>-0.6034651192516147</v>
       </c>
       <c r="HA4" t="n">
-        <v>0.2099384473475054</v>
+        <v>0.8904293206438197</v>
       </c>
       <c r="HB4" t="n">
-        <v>0.8546528778348136</v>
+        <v>0.6566344539266404</v>
       </c>
       <c r="HC4" t="n">
-        <v>-0.8242175396391794</v>
+        <v>-0.4385257490855906</v>
       </c>
       <c r="HD4" t="n">
-        <v>-0.3243317964212746</v>
+        <v>-0.6748010881466858</v>
       </c>
       <c r="HE4" t="n">
-        <v>-0.2406398518507695</v>
+        <v>0.4560259468357953</v>
       </c>
       <c r="HF4" t="n">
-        <v>0.5308800636230983</v>
+        <v>-0.1521995846329564</v>
       </c>
       <c r="HG4" t="n">
-        <v>0.8592729999440549</v>
+        <v>0.4490465399668616</v>
       </c>
       <c r="HH4" t="n">
-        <v>-0.7872298573655339</v>
+        <v>0.9253518481606992</v>
       </c>
       <c r="HI4" t="n">
-        <v>0.918973091979446</v>
+        <v>-0.7824054871885512</v>
       </c>
       <c r="HJ4" t="n">
-        <v>-0.7489747277691536</v>
+        <v>0.4140213108357618</v>
       </c>
       <c r="HK4" t="n">
-        <v>-0.6971946583020251</v>
+        <v>-0.2981350730151969</v>
       </c>
       <c r="HL4" t="n">
-        <v>-0.3243317964212741</v>
+        <v>0.855096714407066</v>
       </c>
       <c r="HM4" t="n">
-        <v>-0.3243317964212741</v>
+        <v>0.7425623306424116</v>
       </c>
       <c r="HN4" t="n">
-        <v>0.8337366372053244</v>
+        <v>-0.1241629316932834</v>
       </c>
       <c r="HO4" t="n">
-        <v>0.7440949887718921</v>
+        <v>-0.1625710549401179</v>
       </c>
       <c r="HP4" t="n">
-        <v>-0.3243317964212746</v>
+        <v>-0.3283058754062597</v>
       </c>
       <c r="HQ4" t="n">
-        <v>0.1760751765338046</v>
+        <v>-0.1462380993536458</v>
       </c>
       <c r="HR4" t="n">
-        <v>0.3331201619280874</v>
+        <v>-0.8056626538341758</v>
       </c>
       <c r="HS4" t="n">
-        <v>0.571137629731813</v>
+        <v>0.8877884873477838</v>
       </c>
       <c r="HT4" t="n">
-        <v>0.8554604722440121</v>
+        <v>-0.4284680622632177</v>
       </c>
       <c r="HU4" t="n">
-        <v>-0.6012508305442059</v>
+        <v>0.6704594734917468</v>
       </c>
       <c r="HV4" t="n">
-        <v>-0.876114629866711</v>
+        <v>0.5665175427234124</v>
       </c>
       <c r="HW4" t="n">
-        <v>-0.8682062454635576</v>
+        <v>0.8695975121988787</v>
       </c>
       <c r="HX4" t="n">
-        <v>-0.8367421308901505</v>
+        <v>0.8470067833552754</v>
       </c>
       <c r="HY4" t="n">
-        <v>0.1598125526744681</v>
+        <v>0.7171467862671455</v>
       </c>
       <c r="HZ4" t="n">
-        <v>0.9163429215609171</v>
+        <v>-0.2698541980511769</v>
       </c>
       <c r="IA4" t="n">
-        <v>0.6483274356819426</v>
+        <v>-0.5163730301354658</v>
       </c>
       <c r="IB4" t="n">
-        <v>-0.5027585189023814</v>
+        <v>-0.2465704527680822</v>
       </c>
       <c r="IC4" t="n">
-        <v>-0.5986678617074327</v>
+        <v>-0.2658089047741853</v>
       </c>
       <c r="ID4" t="n">
-        <v>0.5579394648355139</v>
+        <v>-0.8046977139299332</v>
       </c>
       <c r="IE4" t="n">
-        <v>-0.06554996975618071</v>
+        <v>0.8342043613332615</v>
       </c>
       <c r="IF4" t="n">
-        <v>0.4559627305946742</v>
+        <v>0.1034541662988329</v>
       </c>
       <c r="IG4" t="n">
-        <v>0.9306668403128148</v>
+        <v>-0.8706419407000069</v>
       </c>
       <c r="IH4" t="n">
-        <v>-0.768048711030877</v>
+        <v>-0.5648779074298066</v>
       </c>
       <c r="II4" t="n">
-        <v>0.4695610980754346</v>
+        <v>0.8342043613332615</v>
       </c>
       <c r="IJ4" t="n">
-        <v>-0.5258440216856887</v>
+        <v>0.779434251076888</v>
       </c>
       <c r="IK4" t="n">
-        <v>0.350331355904792</v>
+        <v>-0.4538014720379741</v>
       </c>
       <c r="IL4" t="n">
-        <v>0.665567000290653</v>
+        <v>0.2754670578096495</v>
       </c>
       <c r="IM4" t="n">
-        <v>0.1443883599699263</v>
+        <v>-0.1868404389996005</v>
       </c>
       <c r="IN4" t="n">
-        <v>-0.09916210644478082</v>
+        <v>-0.5840304066607946</v>
       </c>
       <c r="IO4" t="n">
-        <v>-0.3064655055098925</v>
+        <v>0.9237769871644171</v>
       </c>
       <c r="IP4" t="n">
-        <v>-0.1525113111527966</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>-0.8027069730967158</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>0.8737083168926627</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>-0.4542770459202232</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>0.6819416050752642</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>0.5498980920774447</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>0.8713662334497315</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>0.8632556083594887</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>0.8281863475346568</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>-0.3219075182886222</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>-0.5316235832929794</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>-0.1277264428306861</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>-0.3113342185046842</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>-0.7967843149803031</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>0.8329468282221935</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>0.224251439173294</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>-0.9335750796779041</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>-0.5415362030457276</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>0.8329468282221935</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>0.8293975860288924</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>-0.5272087787039931</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>0.3234064594783907</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>0.3400028077512757</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>-0.4128151314872521</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>0.8669537220902974</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>0.751684521118029</v>
+        <v>0.8261551539648011</v>
       </c>
     </row>
   </sheetData>
